--- a/data/AItest/code_scenario.xlsx
+++ b/data/AItest/code_scenario.xlsx
@@ -43,7 +43,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9.75"/>
+      <b val="true"/>
+      <sz val="10.5"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -64,8 +65,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="true"/>
-      <sz val="10.5"/>
+      <sz val="9.75"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -101,6 +101,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -121,21 +136,6 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -144,8 +144,8 @@
     <xf applyAlignment="false" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
@@ -153,8 +153,8 @@
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="3" fillId="0" fontId="3" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="4" fillId="2" fontId="4" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="4" fillId="0" fontId="4" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -486,22 +486,22 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="4" t="str">
+      <c r="A1" s="1" t="str">
         <v>question_id</v>
       </c>
-      <c r="B1" s="4" t="str">
+      <c r="B1" s="1" t="str">
         <v>language</v>
       </c>
-      <c r="C1" s="4" t="str">
+      <c r="C1" s="1" t="str">
         <v>file_name</v>
       </c>
-      <c r="D1" s="4" t="str">
+      <c r="D1" s="1" t="str">
         <v>question</v>
       </c>
-      <c r="E1" s="4" t="str">
+      <c r="E1" s="1" t="str">
         <v>reference</v>
       </c>
-      <c r="F1" s="4" t="str">
+      <c r="F1" s="1" t="str">
         <v>main</v>
       </c>
     </row>
@@ -513,10 +513,10 @@
         <v>python</v>
       </c>
       <c r="C2" s="2" t="str">
-        <v>linear_regression.py</v>
+        <v>solution.py</v>
       </c>
       <c r="D2" s="3" t="str">
-        <v>import torch
+        <v>
 import torch.nn as nn
 class LinearRegression(nn.Module):
     def __init__(self, input_size, output_size):
@@ -532,8 +532,8 @@
         """
          # TODO: 完成这个函数</v>
       </c>
-      <c r="E2" s="1" t="str">
-        <v>import torch
+      <c r="E2" s="4" t="str">
+        <v>
 import torch.nn as nn
 class LinearRegression(nn.Module):
     def __init__(self, input_size, output_size):
@@ -542,49 +542,49 @@
     def forward(self, x):
         """
         输入:
-        - x: 一个形状为(batch_size, input_size)的PyTorch张量。
+        - x: 一个形状为(batch_size, input_size)的PyTorch张量。1111
         输出:
         - out: 一个形状为(batch_size, output_size)的PyTorch张量，表示线性回归模型的输出。
         """
         out = self.linear(x)
-        return out
-</v>
-      </c>
-      <c r="F2" s="1" t="str">
+        return out</v>
+      </c>
+      <c r="F2" s="4" t="str">
         <v>import torch
 import torch.nn as nn
 import numpy as np
-from linear_regression import LinearRegression
-# 定义模型
-input_dim = 1  # 输入的维度
-output_dim = 1  # 输出的维度
-model = LinearRegression(input_dim, output_dim)
-# 定义损失函数和优化器
-criterion = nn.MSELoss()
-optimizer = torch.optim.SGD(model.parameters(), lr=0.01)
-# 训练模型
-epochs = 100
-# 数据集
-np.random.seed(0)
-x = np.random.rand(10, 1)
-y = 2 * x + 3 + np.random.randn(10, 1)
-# 将numpy数组转换为PyTorch Tensor
-x = torch.from_numpy(x).float()
-y = torch.from_numpy(y).float()
-for epoch in range(epochs):
-    # 前向传播
-    outputs = model(x)
-    loss = criterion(outputs, y)
-    # 反向传播和优化
-    optimizer.zero_grad()
-    loss.backward()
-    optimizer.step()
-    if (epoch+1) % 10 == 0:
-        print(f'Epoch {epoch+1}/{epochs}, Loss: {loss.item()}')
-print("Final Loss:",loss.item())
-# 在训练循环结束后
-assert loss.item() &lt; 2, "Loss is not less than 2"
-</v>
+from solution import LinearRegression
+def main():
+    # 定义模型
+    input_dim = 1  # 输入的维度
+    output_dim = 1  # 输出的维度
+    model = LinearRegression(input_dim, output_dim)
+    # 定义损失函数和优化器
+    criterion = nn.MSELoss()
+    optimizer = torch.optim.SGD(model.parameters(), lr=0.01)
+    # 训练模型
+    epochs = 100
+    # 数据集
+    np.random.seed(0)
+    x = np.random.rand(10, 1)
+    y = 2 * x + 3 + np.random.randn(10, 1)
+    # 将numpy数组转换为PyTorch Tensor
+    x = torch.from_numpy(x).float()
+    y = torch.from_numpy(y).float()
+    for epoch in range(epochs):
+        # 前向传播
+        outputs = model(x)
+        loss = criterion(outputs, y)
+        # 反向传播和优化
+        optimizer.zero_grad()
+        loss.backward()
+        optimizer.step()
+        if (epoch+1) % 10 == 0:
+            print(f'Epoch {epoch+1}/{epochs}, Loss: {loss.item()}')
+    print("Final Loss:",loss.item())
+    # 在训练循环结束后
+    assert loss.item() &lt; 2, "Loss is not less than 2"
+    return 1</v>
       </c>
     </row>
     <row r="3">
@@ -595,7 +595,7 @@
         <v>python</v>
       </c>
       <c r="C3" s="2" t="str">
-        <v>image_classifier.py</v>
+        <v>solution.py</v>
       </c>
       <c r="D3" s="3" t="str">
         <v>import torch
@@ -629,7 +629,7 @@
         """
 </v>
       </c>
-      <c r="E3" s="1" t="str">
+      <c r="E3" s="4" t="str">
         <v>import torch
 import torch.nn as nn
 import torchvision
@@ -659,41 +659,43 @@
         return out
 </v>
       </c>
-      <c r="F3" s="1" t="str">
+      <c r="F3" s="4" t="str">
         <v>import torch
 import torch.nn as nn
 import torchvision
 import torchvision.transforms as transforms
-from image_classifier import ImageClassifier
-# 定义超参数
-input_size = 3  # 输入的维度（对于彩色图像，通常是3）
-num_classes = 10  # 输出的维度（对于CIFAR-10数据集，有10个类别）
-num_epochs = 3  # 训练的轮数
-batch_size = 100  # 每个批次的样本数量
-learning_rate = 0.001  # 学习率
-# 加载CIFAR-10数据集
-transform = transforms.Compose([transforms.ToTensor()])
-train_dataset = torchvision.datasets.CIFAR10(root='./data/AItest/data', train=True, download=True, transform=transform)
-train_loader = torch.utils.data.DataLoader(train_dataset, batch_size=batch_size, shuffle=True)
-# 定义模型
-model = ImageClassifier(input_size, num_classes)
-# 定义损失函数和优化器
-criterion = nn.CrossEntropyLoss()
-optimizer = torch.optim.Adam(model.parameters(), lr=learning_rate)
-# 训练模型
-for epoch in range(num_epochs):
-    for i, (images, labels) in enumerate(train_loader):
-        # 前向传播
-        outputs = model(images)
-        loss = criterion(outputs, labels)
-        # 反向传播和优化
-        optimizer.zero_grad()
-        loss.backward()
-        optimizer.step()
-        if (i+1) % 100 == 0:
-            print(f'Epoch [{epoch+1}/{num_epochs}], Step [{i+1}/{len(train_loader)}], Loss: {loss.item()}')
-print("最后的Loss:",loss.item())
-assert loss.item() &lt; 2, "Loss is not less than 2"</v>
+from solution import ImageClassifier
+def main():
+    # 定义超参数
+    input_size = 3  # 输入的维度（对于彩色图像，通常是3）
+    num_classes = 10  # 输出的维度（对于CIFAR-10数据集，有10个类别）
+    num_epochs = 3  # 训练的轮数
+    batch_size = 100  # 每个批次的样本数量
+    learning_rate = 0.001  # 学习率
+    # 加载CIFAR-10数据集
+    transform = transforms.Compose([transforms.ToTensor()])
+    train_dataset = torchvision.datasets.CIFAR10(root='./data/AItest/data', train=True, download=True, transform=transform)
+    train_loader = torch.utils.data.DataLoader(train_dataset, batch_size=batch_size, shuffle=True)
+    # 定义模型
+    model = ImageClassifier(input_size, num_classes)
+    # 定义损失函数和优化器
+    criterion = nn.CrossEntropyLoss()
+    optimizer = torch.optim.Adam(model.parameters(), lr=learning_rate)
+    # 训练模型
+    for epoch in range(num_epochs):
+        for i, (images, labels) in enumerate(train_loader):
+            # 前向传播
+            outputs = model(images)
+            loss = criterion(outputs, labels)
+            # 反向传播和优化
+            optimizer.zero_grad()
+            loss.backward()
+            optimizer.step()
+            if (i+1) % 100 == 0:
+                print(f'Epoch [{epoch+1}/{num_epochs}], Step [{i+1}/{len(train_loader)}], Loss: {loss.item()}')
+    print("最后的Loss:",loss.item())
+    assert loss.item() &lt; 2, "Loss is not less than 2"
+    return 1</v>
       </c>
     </row>
   </sheetData>
